--- a/Dataset/summary_table.xlsx
+++ b/Dataset/summary_table.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>Source</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Malware type</t>
   </si>
   <si>
-    <t>Source file</t>
-  </si>
-  <si>
     <t>Hynek Petrak</t>
   </si>
   <si>
@@ -37,9 +31,6 @@
     <t>Malware Bazaar</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
     <t>MINOS: A Lightweight Real-Time Cryptojacking Detection System</t>
   </si>
   <si>
@@ -62,13 +53,55 @@
   </si>
   <si>
     <t>WASM</t>
+  </si>
+  <si>
+    <t>Source link</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/5832621/files/wasms.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/miner-ray/miner-ray.github.io/tree/master</t>
+  </si>
+  <si>
+    <t>https://github.com/HynekPetrak/javascript-malware-collection</t>
+  </si>
+  <si>
+    <t>https://github.com/geeksonsecurity/js-malicious-dataset</t>
+  </si>
+  <si>
+    <t>https://bazaar.abuse.ch/</t>
+  </si>
+  <si>
+    <t>https://www.hackerchatter.org/database</t>
+  </si>
+  <si>
+    <t>SourceFinder</t>
+  </si>
+  <si>
+    <t>Source paper</t>
+  </si>
+  <si>
+    <t>https://www.ndss-symposium.org/ndss-paper/minos-a-lightweight-real-time-cryptojacking-detection-system/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3324884.3416580</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Source name</t>
+  </si>
+  <si>
+    <t>Source file type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +114,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,17 +160,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,119 +491,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2">
+        <v>31963</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>1313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>31963</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1313</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Dataset/summary_table.xlsx
+++ b/Dataset/summary_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Malware type</t>
   </si>
@@ -46,9 +46,6 @@
     <t>C/C++</t>
   </si>
   <si>
-    <t>N° of WASM files</t>
-  </si>
-  <si>
     <t>Ransomware, backdoor, DoS, wiper, rat, botnet</t>
   </si>
   <si>
@@ -95,6 +92,42 @@
   </si>
   <si>
     <t>Source file type</t>
+  </si>
+  <si>
+    <t>https://github.com/bytecodealliance/wasm-tools.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/bytecodealliance/wasm-tools.git </t>
+  </si>
+  <si>
+    <t>WASM obfuscator (wasm-mutate)</t>
+  </si>
+  <si>
+    <t>https://github.com/javascript-obfuscator/javascript-obfuscator#</t>
+  </si>
+  <si>
+    <t>N° of files</t>
+  </si>
+  <si>
+    <t>Binary obfuscator</t>
+  </si>
+  <si>
+    <t>Compilation in WASM</t>
+  </si>
+  <si>
+    <t>https://github.com/bytecodealliance/javy</t>
+  </si>
+  <si>
+    <t>https://github.com/emscripten-core/emsdk.git</t>
+  </si>
+  <si>
+    <t>Runnable with wasmtime</t>
+  </si>
+  <si>
+    <t>Runtime wasmtime</t>
+  </si>
+  <si>
+    <t>https://github.com/bytecodealliance/wasmtime</t>
   </si>
 </sst>
 </file>
@@ -176,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -189,6 +222,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,161 +527,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>39889</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>33256</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
         <v>31963</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>31963</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>4241</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1357</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>1313</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>1313</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>1313</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>162</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
         <v>105</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="M4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>70</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
+      <c r="M7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="K14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -657,8 +872,27 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
     <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="K2" r:id="rId9"/>
+    <hyperlink ref="K3" r:id="rId10"/>
+    <hyperlink ref="K4" r:id="rId11"/>
+    <hyperlink ref="K5" r:id="rId12"/>
+    <hyperlink ref="K6" r:id="rId13"/>
+    <hyperlink ref="K7" r:id="rId14"/>
+    <hyperlink ref="I2" r:id="rId15"/>
+    <hyperlink ref="I3" r:id="rId16"/>
+    <hyperlink ref="I5" r:id="rId17"/>
+    <hyperlink ref="G2" r:id="rId18"/>
+    <hyperlink ref="G3" r:id="rId19"/>
+    <hyperlink ref="G5" r:id="rId20"/>
+    <hyperlink ref="G6" r:id="rId21"/>
+    <hyperlink ref="M2" r:id="rId22"/>
+    <hyperlink ref="M3" r:id="rId23"/>
+    <hyperlink ref="M4" r:id="rId24"/>
+    <hyperlink ref="M5" r:id="rId25"/>
+    <hyperlink ref="M6" r:id="rId26"/>
+    <hyperlink ref="M7" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Dataset/summary_table.xlsx
+++ b/Dataset/summary_table.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,7 +768,7 @@
         <v>37</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14">

--- a/Dataset/summary_table.xlsx
+++ b/Dataset/summary_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Malware type</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>https://github.com/bytecodealliance/wasmtime</t>
+  </si>
+  <si>
+    <t>https://github.com/Yuxia-Sun/WasmMal</t>
+  </si>
+  <si>
+    <t>WasmGuard: Enhancing Web Security through Robust Raw-Binary Detection of WebAssembly Malware</t>
+  </si>
+  <si>
+    <t>https://openreview.net/forum?id=xALBXUXnet#discussion</t>
+  </si>
+  <si>
+    <t>Opcode and bytecode extraction</t>
   </si>
 </sst>
 </file>
@@ -527,31 +539,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -594,8 +607,11 @@
       <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -638,8 +654,11 @@
       <c r="N2">
         <v>4241</v>
       </c>
+      <c r="O2">
+        <v>4241</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -682,8 +701,11 @@
       <c r="N3">
         <v>4</v>
       </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -726,8 +748,11 @@
       <c r="N4">
         <v>11</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -770,8 +795,11 @@
       <c r="N5">
         <v>5</v>
       </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -814,8 +842,11 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -858,8 +889,58 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>7512</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>7512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>7512</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>2039</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="K14" s="3"/>
     </row>
   </sheetData>
@@ -891,8 +972,12 @@
     <hyperlink ref="M5" r:id="rId25"/>
     <hyperlink ref="M6" r:id="rId26"/>
     <hyperlink ref="M7" r:id="rId27"/>
+    <hyperlink ref="B8" r:id="rId28" location="discussion"/>
+    <hyperlink ref="A8" r:id="rId29"/>
+    <hyperlink ref="K8" r:id="rId30"/>
+    <hyperlink ref="M8" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
 </worksheet>
 </file>